--- a/figures/随模型占比.xlsx
+++ b/figures/随模型占比.xlsx
@@ -5,37 +5,34 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuzhuo/Desktop/毕业设计/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuzhuo/Desktop/毕业设计/SJTU-lz/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB75B7B-30C6-C34E-B51B-68063B721616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFA326F-1BEB-FB48-971F-D105AC6F283A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="660" windowWidth="21760" windowHeight="15360" xr2:uid="{154B9154-BC97-4749-99F7-B60EA92632C9}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" xr2:uid="{154B9154-BC97-4749-99F7-B60EA92632C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$44</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$43:$Q$43</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$44</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$43:$Q$43</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$44</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$43:$Q$43</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$44</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$43:$Q$43</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$43</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$44</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$43:$Q$43</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$A$43</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$A$44</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$B$43:$Q$43</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$B$44:$Q$44</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$50</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$51</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$51:$Q$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$49:$Q$49</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$50:$Q$50</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$51:$Q$51</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$49</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$50</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$49:$Q$49</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$50:$Q$50</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$A$49</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$A$50</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$A$51</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$B$49:$Q$49</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$B$50:$Q$50</definedName>
+    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$B$51:$Q$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -58,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>模型数据占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +78,14 @@
   </si>
   <si>
     <t>该位的熵值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可去重空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熵值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,11 +132,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -164,63 +172,9 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>系统去重率随模型数据占比变化</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -242,46 +196,111 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
+            <a:pattFill prst="pct60">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="979E96"/>
               </a:fgClr>
               <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
               </a:bgClr>
             </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0%">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -289,23 +308,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.34</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.0900000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -313,25 +344,26 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C658-3947-B36C-99144F9F71FE}"/>
+              <c16:uniqueId val="{00000000-DD28-674F-A7B1-6CBD9D97FC12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
-        <c:axId val="895665264"/>
-        <c:axId val="895666976"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1408969888"/>
+        <c:axId val="1731511663"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="895665264"/>
+        <c:axId val="1408969888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,57 +372,34 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN"/>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>模型数据占比</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -398,11 +407,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -417,8 +426,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -429,7 +438,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="895666976"/>
+        <c:crossAx val="1731511663"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -437,67 +446,59 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="895666976"/>
+        <c:axId val="1731511663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
           <c:min val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN"/>
-                  <a:t>系统去重率</a:t>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>去重率</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -518,8 +519,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -530,14 +531,21 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="895665264"/>
+        <c:crossAx val="1408969888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -592,63 +600,9 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>系统去重率随平均块大小变化</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -670,25 +624,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
+            <a:pattFill prst="pct60">
               <a:fgClr>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="979E96"/>
               </a:fgClr>
               <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
               </a:bgClr>
             </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -700,7 +650,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -709,8 +659,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -750,23 +700,29 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$F$30</c:f>
+              <c:f>Sheet1!$B$30:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -774,23 +730,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$F$31</c:f>
+              <c:f>Sheet1!$B$31:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.0712999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.2563000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4.8666999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>4.7641999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4.5263999999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>4.3552</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>4.3231999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -798,7 +760,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC5F-6648-B9C6-1D8E3022E676}"/>
+              <c16:uniqueId val="{00000000-DD28-674F-A7B1-6CBD9D97FC12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -811,13 +773,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
-        <c:axId val="906268960"/>
-        <c:axId val="906270688"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1408969888"/>
+        <c:axId val="1731511663"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="906268960"/>
+        <c:axId val="1408969888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,66 +788,27 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>平均块大小（</a:t>
+                  <a:t>平均块大小</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>KB</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>）</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -893,11 +816,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -912,8 +835,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -924,7 +847,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="906270688"/>
+        <c:crossAx val="1731511663"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -932,68 +855,52 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="906270688"/>
+        <c:axId val="1731511663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7"/>
           <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>系统去重率</a:t>
+                  <a:t>去重率</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1014,8 +921,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1026,14 +933,21 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="906268960"/>
+        <c:crossAx val="1408969888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1262,7 +1176,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$Q$43</c:f>
+              <c:f>Sheet1!$B$49:$Q$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1342,7 +1256,7 @@
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.49</c:v>
@@ -1651,6 +1565,660 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>熵值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct60">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$49:$Q$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$Q$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2983-6741-95A1-DFDC5FAFA08F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>可去重空间</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dotDmnd">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$49:$Q$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$Q$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2983-6741-95A1-DFDC5FAFA08F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="6"/>
+        <c:overlap val="100"/>
+        <c:axId val="543907088"/>
+        <c:axId val="543908800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="543907088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>bit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>位</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543908800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543908800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>熵值</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543907088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40869929612508948"/>
+          <c:y val="0.88044439609710856"/>
+          <c:w val="0.2776369558428044"/>
+          <c:h val="7.7971235841577752E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1731,46 +2299,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
@@ -2291,7 +2819,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2302,7 +2830,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2315,11 +2843,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2332,7 +2860,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2348,7 +2876,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2392,70 +2920,32 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -2467,29 +2957,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2511,13 +3005,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2532,15 +3028,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2551,10 +3047,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2570,14 +3066,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2589,24 +3085,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -2615,16 +3118,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2633,10 +3137,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2646,24 +3169,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -2682,7 +3187,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2690,7 +3195,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2710,10 +3215,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2730,11 +3235,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2743,13 +3248,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2776,260 +3282,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -3039,152 +3291,8 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:upBar>
+  <cs:valueAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3195,135 +3303,20 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3332,16 +3325,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3368,16 +3361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>487947</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139774</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>559913</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>173640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>113631</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>75606</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>185597</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>109472</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3404,16 +3397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>781310</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>139775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501910</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>55108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>589874</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>75606</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>310474</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>194139</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3433,6 +3426,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>198967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802577BD-D6E1-6E09-DAE3-6387BE25E4DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3756,12 +3785,584 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="0E2841"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E8E8E8"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="156082"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="E97132"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="196B24"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="0F9ED5"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="A02B93"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="4EA72E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="467886"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="96607D"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="0E2841"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E8E8E8"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="156082"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="E97132"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="196B24"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="0F9ED5"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="A02B93"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="4EA72E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="467886"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="96607D"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0564E315-3E24-D547-BF99-DC8C4E6C5E46}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="171" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="131" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3773,36 +4374,32 @@
       <c r="B1">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D1" s="1">
         <v>0.25</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F1" s="1">
         <v>0.5</v>
       </c>
-      <c r="E1" s="1">
+      <c r="G1" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="H1" s="1">
         <v>0.75</v>
       </c>
-      <c r="F1" s="1">
+      <c r="I1" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="J1" s="1">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="K1" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0.24</v>
-      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -3812,24 +4409,36 @@
         <v>1.52</v>
       </c>
       <c r="C2">
+        <v>1.42</v>
+      </c>
+      <c r="D2">
         <v>1.34</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>1.28</v>
+      </c>
+      <c r="F2">
         <v>1.21</v>
       </c>
-      <c r="E2">
+      <c r="G2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F2">
+      <c r="I2">
+        <v>1.03</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -3837,19 +4446,25 @@
         <v>4</v>
       </c>
       <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
         <v>8</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
         <v>16</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>40</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -3857,69 +4472,22 @@
         <v>6.0712999999999999</v>
       </c>
       <c r="C31">
+        <v>5.2563000000000004</v>
+      </c>
+      <c r="D31">
         <v>4.8666999999999998</v>
       </c>
-      <c r="D31">
+      <c r="E31">
+        <v>4.7641999999999998</v>
+      </c>
+      <c r="F31">
         <v>4.5263999999999998</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>4.3552</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>4.3231999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <v>5</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43">
-        <v>7</v>
-      </c>
-      <c r="J43">
-        <v>8</v>
-      </c>
-      <c r="K43">
-        <v>9</v>
-      </c>
-      <c r="L43">
-        <v>10</v>
-      </c>
-      <c r="M43">
-        <v>11</v>
-      </c>
-      <c r="N43">
-        <v>12</v>
-      </c>
-      <c r="O43">
-        <v>13</v>
-      </c>
-      <c r="P43">
-        <v>14</v>
-      </c>
-      <c r="Q43">
-        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3945,7 +4513,7 @@
         <v>0.46</v>
       </c>
       <c r="H44">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="I44">
         <v>0.49</v>
@@ -3973,6 +4541,218 @@
       </c>
       <c r="Q44">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>0.01</v>
+      </c>
+      <c r="C45">
+        <v>0.01</v>
+      </c>
+      <c r="D45">
+        <v>0.02</v>
+      </c>
+      <c r="E45">
+        <v>0.02</v>
+      </c>
+      <c r="F45">
+        <v>0.01</v>
+      </c>
+      <c r="G45">
+        <v>0.04</v>
+      </c>
+      <c r="H45">
+        <v>0.03</v>
+      </c>
+      <c r="I45">
+        <v>0.01</v>
+      </c>
+      <c r="J45">
+        <v>0.01</v>
+      </c>
+      <c r="K45">
+        <v>0.11</v>
+      </c>
+      <c r="L45">
+        <v>0.19</v>
+      </c>
+      <c r="M45">
+        <v>0.26</v>
+      </c>
+      <c r="N45">
+        <v>0.5</v>
+      </c>
+      <c r="O45">
+        <v>0.5</v>
+      </c>
+      <c r="P45">
+        <v>0.5</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49">
+        <v>11</v>
+      </c>
+      <c r="N49">
+        <v>12</v>
+      </c>
+      <c r="O49">
+        <v>13</v>
+      </c>
+      <c r="P49">
+        <v>14</v>
+      </c>
+      <c r="Q49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>0.98</v>
+      </c>
+      <c r="C50">
+        <v>0.98</v>
+      </c>
+      <c r="D50">
+        <v>0.96</v>
+      </c>
+      <c r="E50">
+        <v>0.96</v>
+      </c>
+      <c r="F50">
+        <v>0.98</v>
+      </c>
+      <c r="G50">
+        <v>0.92</v>
+      </c>
+      <c r="H50">
+        <v>0.94</v>
+      </c>
+      <c r="I50">
+        <v>0.98</v>
+      </c>
+      <c r="J50">
+        <v>0.98</v>
+      </c>
+      <c r="K50">
+        <v>0.78</v>
+      </c>
+      <c r="L50">
+        <v>0.62</v>
+      </c>
+      <c r="M50">
+        <v>0.48</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>0.02</v>
+      </c>
+      <c r="C51">
+        <v>0.02</v>
+      </c>
+      <c r="D51">
+        <v>0.04</v>
+      </c>
+      <c r="E51">
+        <v>0.04</v>
+      </c>
+      <c r="F51">
+        <v>0.02</v>
+      </c>
+      <c r="G51">
+        <v>0.08</v>
+      </c>
+      <c r="H51">
+        <v>0.06</v>
+      </c>
+      <c r="I51">
+        <v>0.02</v>
+      </c>
+      <c r="J51">
+        <v>0.02</v>
+      </c>
+      <c r="K51">
+        <v>0.22</v>
+      </c>
+      <c r="L51">
+        <v>0.38</v>
+      </c>
+      <c r="M51">
+        <v>0.52</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/figures/随模型占比.xlsx
+++ b/figures/随模型占比.xlsx
@@ -8,32 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuzhuo/Desktop/毕业设计/SJTU-lz/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFA326F-1BEB-FB48-971F-D105AC6F283A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF2E688-AAD3-644F-B367-31A6BAA77AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" xr2:uid="{154B9154-BC97-4749-99F7-B60EA92632C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$50</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$51:$Q$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$49:$Q$49</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$50:$Q$50</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$51:$Q$51</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$49</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$50</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$51</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$49:$Q$49</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$50:$Q$50</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$A$49</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$A$50</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$A$51</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$B$49:$Q$49</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$B$50:$Q$50</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$B$51:$Q$51</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>模型数据占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +67,10 @@
   </si>
   <si>
     <t>熵值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,23 +207,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr vert="eaVert"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
@@ -376,24 +349,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>模型数据占比</a:t>
                 </a:r>
               </a:p>
@@ -419,21 +378,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -475,25 +424,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>去重率</a:t>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据缩减</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>率</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -512,21 +451,374 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1408969888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>系统去重率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct60">
+              <a:fgClr>
+                <a:srgbClr val="979E96"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0712999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2563000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8666999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7641999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5263999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3231999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD28-674F-A7B1-6CBD9D97FC12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1408969888"/>
+        <c:axId val="1731511663"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1408969888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>平均块大小</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731511663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1731511663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据缩减率</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -574,409 +866,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>系统去重率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct60">
-              <a:fgClr>
-                <a:srgbClr val="979E96"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$30:$H$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$31:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>6.0712999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2563000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8666999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7641999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5263999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3552</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.3231999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD28-674F-A7B1-6CBD9D97FC12}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1408969888"/>
-        <c:axId val="1731511663"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1408969888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>平均块大小</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1731511663"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1731511663"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-          <c:min val="3"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>去重率</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1408969888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
+        <a:defRPr>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:sysClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -990,582 +884,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>模型文件</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>BF16</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>浮点数</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>bit</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>位熵值</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>该位的熵值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
-              </a:innerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$49:$Q$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$44:$Q$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6FA9-3647-97E8-48F4B631A716}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="7"/>
-        <c:overlap val="-39"/>
-        <c:axId val="1501184975"/>
-        <c:axId val="1501306575"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1501184975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>bit</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>位</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1501306575"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1501306575"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>熵值</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1501184975"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="22225">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1601,16 +919,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct60">
+            <a:pattFill prst="pct50">
               <a:fgClr>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
               </a:bgClr>
             </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="80118"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1744,22 +1068,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>可去重空间</c:v>
+                  <c:v>冗余程度</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dotDmnd">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1892,7 +1213,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="6"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="100"/>
         <c:axId val="543907088"/>
         <c:axId val="543908800"/>
@@ -1912,11 +1233,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln w="9525" cmpd="thickThin">
+                      <a:noFill/>
+                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1924,12 +1245,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>bit</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>位</a:t>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>浮点数比特位</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1948,11 +1265,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln w="9525" cmpd="thickThin">
+                    <a:noFill/>
+                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1986,11 +1303,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="9525" cmpd="thickThin">
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2051,11 +1368,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln w="9525" cmpd="thickThin">
+                      <a:noFill/>
+                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2063,7 +1380,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>熵值</a:t>
                 </a:r>
               </a:p>
@@ -2083,11 +1400,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln w="9525" cmpd="thickThin">
+                    <a:noFill/>
+                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2115,11 +1432,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="9525" cmpd="thickThin">
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2167,11 +1484,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln w="9525" cmpd="thickThin">
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2206,7 +1523,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln w="9525" cmpd="thickThin">
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -2259,566 +1583,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3397,52 +2162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>501910</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>55108</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>310474</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>194139</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5545CE2-B9B3-930E-8E60-136A17A94EB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>42333</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>198967</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>465667</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>97367</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495645</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71967</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3461,7 +2190,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4361,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0564E315-3E24-D547-BF99-DC8C4E6C5E46}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="131" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G31" activeCellId="1" sqref="M43 G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4704,7 +3433,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51">
         <v>0.02</v>
